--- a/tabel/excel_templates/deskriptivt_segmentkvalitet.xlsx
+++ b/tabel/excel_templates/deskriptivt_segmentkvalitet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="32">
   <si>
     <t xml:space="preserve">\begin{tabular}{@{}lrrrr@{}} \toprule</t>
   </si>
@@ -111,7 +111,10 @@
     <t xml:space="preserve">Mobilitet i alt</t>
   </si>
   <si>
-    <t xml:space="preserve">Forøgelse i intern mobilitet</t>
+    <t xml:space="preserve">Forøgelse i intern mobilitet i procent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forøgelse i intern mobilitet i procentpoint</t>
   </si>
   <si>
     <t xml:space="preserve">%t</t>
@@ -121,15 +124,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.00%"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -259,15 +261,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -358,8 +360,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -549,7 +550,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -569,13 +570,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -591,13 +589,12 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="O15" activeCellId="0" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -667,19 +664,19 @@
         <v>2</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>2</v>
       </c>
       <c r="K3" s="5" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>7</v>
@@ -710,21 +707,21 @@
       </c>
       <c r="G4" s="6" t="n">
         <f aca="false">(E3/G3)-1</f>
-        <v>0.676470588235294</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="6" t="n">
         <f aca="false">(G3/I3)-1</f>
-        <v>0.283018867924528</v>
+        <v>0.232142857142857</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="6" t="n">
         <f aca="false">(I3/K3)-1</f>
-        <v>0.0392156862745099</v>
+        <v>0.037037037037037</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>7</v>
@@ -750,19 +747,19 @@
         <v>2</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.771529767267267</v>
+        <v>0.774857</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>2</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.783208588286713</v>
+        <v>0.789006</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>2</v>
       </c>
       <c r="K5" s="6" t="n">
-        <v>0.788191742424242</v>
+        <v>0.7909251</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>7</v>
@@ -791,21 +788,21 @@
       </c>
       <c r="G6" s="4" t="n">
         <f aca="false">1-G5</f>
-        <v>0.228470232732733</v>
+        <v>0.225143</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>2</v>
       </c>
       <c r="I6" s="4" t="n">
         <f aca="false">1-I5</f>
-        <v>0.216791411713287</v>
+        <v>0.210994</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>2</v>
       </c>
       <c r="K6" s="4" t="n">
         <f aca="false">1-K5</f>
-        <v>0.211808257575758</v>
+        <v>0.2090749</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>7</v>
@@ -880,21 +877,21 @@
       </c>
       <c r="G8" s="10" t="n">
         <f aca="false">(G5/E5)-1</f>
-        <v>0.0323088167539174</v>
+        <v>0.0367606627242387</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>2</v>
       </c>
       <c r="I8" s="10" t="n">
         <f aca="false">(I5/G5)-1</f>
-        <v>0.0151372267343772</v>
+        <v>0.0182601434845397</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="K8" s="10" t="n">
+      <c r="K8" s="11" t="n">
         <f aca="false">(K5/I5)-1</f>
-        <v>0.00636248658665761</v>
+        <v>0.0024323008950502</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>7</v>
@@ -904,13 +901,46 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="2"/>
-      <c r="E9" s="11"/>
-      <c r="G9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="1"/>
+      <c r="A9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="10" t="n">
+        <f aca="false">E5-C5</f>
+        <v>0.0682325328992001</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="10" t="n">
+        <f aca="false">G5-E5</f>
+        <v>0.0274742839506168</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="10" t="n">
+        <f aca="false">I5-G5</f>
+        <v>0.0141490000000001</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="11" t="n">
+        <f aca="false">K5-I5</f>
+        <v>0.00191910000000006</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="M9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -927,7 +957,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>22</v>
@@ -946,12 +976,13 @@
     <hyperlink ref="L7" r:id="rId9" display="\\"/>
     <hyperlink ref="L8" r:id="rId10" display="\\"/>
     <hyperlink ref="N8" r:id="rId11" display="\midrule"/>
-    <hyperlink ref="N10" r:id="rId12" display="\midrule"/>
-    <hyperlink ref="N11" r:id="rId13" display="\bottomrule"/>
+    <hyperlink ref="L9" r:id="rId12" display="\\"/>
+    <hyperlink ref="N10" r:id="rId13" display="\midrule"/>
+    <hyperlink ref="N11" r:id="rId14" display="\bottomrule"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
